--- a/biology/Zoologie/Hoilungea/Hoilungea.xlsx
+++ b/biology/Zoologie/Hoilungea/Hoilungea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hoilungea sont un ordre de placozoaires[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hoilungea sont un ordre de placozoaires.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (6 février 2024)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (6 février 2024) :
 Cladtertiidae Tessler, Neumann, Osigus, DeSalle &amp; Schierwater, 2022
 Hoilungidae Tessler, Neumann, Osigus, DeSalle &amp; Schierwater, 2022</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette ordre a été créé en 2022 par Michael Tessler (d), Johannes S. Neumann (d), Hans-Jürgen Osigus (d), Rob DeSalle (d) et Bernd Schierwater (d)[3],[1], dans une publication coécrite avec Kai Kamm (d), Gil Eshel (d), Apurva Narechania (d) et John A. Burns (d)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette ordre a été créé en 2022 par Michael Tessler (d), Johannes S. Neumann (d), Hans-Jürgen Osigus (d), Rob DeSalle (d) et Bernd Schierwater (d) dans une publication coécrite avec Kai Kamm (d), Gil Eshel (d), Apurva Narechania (d) et John A. Burns (d).
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Michael Tessler, Johannes S. Neumann, Kai Kamm, Hans-Jürgen Osigus, Gil Eshel, Apurva Narechania, John A. Burns, Rob DeSalle et Bernd Schierwater, « Phylogenomics and the first higher taxonomy of Placozoa, an ancient and enigmatic animal phylum », Frontiers in Ecology and Evolution, Suisse, vol. 10, no 1016357,‎ 8 décembre 2022, p. 1-18 (e-ISSN 2296-701X, DOI 10.3389/fevo.2022.1016357, lire en ligne, consulté le 6 février 2024).</t>
         </is>
